--- a/Jcashbook_Data.xlsx
+++ b/Jcashbook_Data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -461,216 +461,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>여행</t>
+          <t>영수증</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 여행</t>
+          <t>I-T)아메리카노 x12, T)골드 브루 x1</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>460000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>게임</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>롤 현질</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023-11-07</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>음식</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>배달 음식</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>게임</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>게임 현질</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2023-11-09</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>여행</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>부산 여행</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2023-11-30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>게임</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>블서 현질</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2023-11-30</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>여행</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>김포 여행</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2023-11-30</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>음식</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>외식</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2023-12-02</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>지출</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>음식</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>숯치</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>12000</v>
+        <v>12700</v>
       </c>
     </row>
   </sheetData>
